--- a/dataprocess.xlsx
+++ b/dataprocess.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tuli\Documents\practice_git_repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C70DF91-B243-459B-BA68-1C5D60291BF0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DCEA8E-46AC-4691-A97A-93593F536F9C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Processing Timeplan" sheetId="1" state="hidden" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="131">
   <si>
     <t>Phase</t>
   </si>
@@ -424,6 +424,9 @@
   </si>
   <si>
     <t xml:space="preserve">Recruit identified crucial positions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tell me about yourself </t>
   </si>
 </sst>
 </file>
@@ -733,7 +736,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -892,6 +895,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1699,7 +1703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
@@ -2162,10 +2166,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2355,6 +2359,11 @@
       <c r="B18" s="49"/>
       <c r="C18" s="49"/>
     </row>
+    <row r="19" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="60" t="s">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
